--- a/text_for_pptx.xlsx
+++ b/text_for_pptx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ophirbetser/Ophir/R PROJECTS/pptx_from_R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960726EA-7F06-DF41-A133-58D2DA166E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CA0297-55C2-E54A-A650-8DC0F08F8893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96000" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{9A26A16B-AF14-A84D-ABE4-F7BB9E9413C3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="33340" xr2:uid="{9A26A16B-AF14-A84D-ABE4-F7BB9E9413C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>page</t>
   </si>
@@ -51,20 +51,49 @@
     <t>שלום רב! קוראים לי אופיר בצר</t>
   </si>
   <si>
-    <t>היום יום ראשון ואנחנו ממש מרוצים מכך. יום ראשון הוא היום שבו ברא הקדוש ברוך הוא את השמים ואת הארץ. חשוב מאוד לזכור את הדבר הזה. לזכור ולעולם לא לשכוח. כי בזכותו ובזכות מעשיו אנחנו נהנים מהקיום הטוב והמטיב עד עצם היום הזה. אמן.</t>
-  </si>
-  <si>
     <t>ערב טוב לכולםן</t>
+  </si>
+  <si>
+    <t>פיתחנו מהירות, אך כלאנו את עצמנו. מכונות הנותנות שפע השאירו אותנו במחסור. ידיעתנו הותירה אותנו ציניים, תבונתינו קשה ולא נדיבה. אנו חושבים יותר מדי ומרגישים פחות מדי. יותר ממיכון דרושה לנו אנושיות. יותר מתבונה דרושות לנו נדיבות ועדינות. בלי תכונות אלו החיים יהיו אלימים והכל יאבד. המטוס והרדיו קרבו אותנו - עצם טבען של המצאות אלו זועק למען הטוב שבאדם, זועק לאחווה כלל עולמית ולאחדות כולנו.</t>
+  </si>
+  <si>
+    <t>חיילים, אל תתנו את עצמכם לבריונים, אנשים הבזים לכם ומשעבדים אתכם, הממשטרים את חייכם, האומרים לכם מה לעשות, מה לחשוב ומה להרגיש, המאמנים ומרעיבים אתכם, המתייחסים אליכם כאל בקר ומשתמשים בכם כבשר תותחים. אל תתנו את עצמכם לאנשים לא טבעיים אלו, אנשי מכונה עם מוחות מכונה ולבבות מכונה. אתם אינכם מכונות, אינכם בקר, אתם אנשים. אהבת האנושות מפעמת בליבכם, אינכם שונאים. רק הבלתי אהובים שונאים, הבלתי אהובים והבלתי טבעיים. חיילים, אל תלחמו למען העבדות, הילחמו למען החירות. בפרק 17 בבשורה על-פי לוקאס נכתב: "ממלכת האל מצויה באדם", לא באדם אחד ולא בקבוצת בני אדם אלא באנושות כולה, בכם, בכם העם יש את הכוח, הכוח ליצור מכונות, הכוח ליצור אושר. בכם העם יש את הכוח להפוך את החיים הללו לחופשיים ויפים, להפוך את החיים להרפתקה מופלאה. לכן בשם הדמוקרטיה הבה נשתמש בכוח הזה, הבה נתאחד ללחום למען עולם חדש, עולם הגון, שייתן לאדם את הסיכוי לעבוד, שייתן עתיד לצעירים וביטחון לעת זקנה.</t>
+  </si>
+  <si>
+    <t>בהבטיחם את הדברים הללו בריונים עלו לשלטון. אבל הם משקרים, הם אינם ממלאים את ההבטחה הזאת, הם לעולם לא ימלאו אותה.</t>
+  </si>
+  <si>
+    <t>חיילים, בשם הדמוקרטיה הבה נתאחד</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202122"/>
+      <name val="David"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,13 +116,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -406,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324FF51E-17CA-D14C-9287-1301F30F6073}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="267" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,11 +468,11 @@
       <c r="B2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -449,11 +482,11 @@
       <c r="B3">
         <v>4.2</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -463,11 +496,11 @@
       <c r="B4">
         <v>4.3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -477,11 +510,11 @@
       <c r="B5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -491,14 +524,20 @@
       <c r="B6">
         <v>4.5</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" tooltip="הבשורה על פי לוקאס פרק יז" display="https://he.wikisource.org/wiki/%D7%94%D7%91%D7%A9%D7%95%D7%A8%D7%94_%D7%A2%D7%9C_%D7%A4%D7%99_%D7%9C%D7%95%D7%A7%D7%90%D7%A1_%D7%A4%D7%A8%D7%A7_%D7%99%D7%96" xr:uid="{4BD9AF4A-4FE1-7144-80C4-A41116BCD0A0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>